--- a/data/trans_orig/P1408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA04F013-AA90-4CB5-8D77-B03464DE2033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{986C57EF-1F1B-49F2-A16D-84ED3F0782E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E886828-334B-488F-B898-EE2279FA5C1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B13F8E-D20A-4BBA-B73A-766A438B2B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="414">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1111 +95,1192 @@
     <t>5,5%</t>
   </si>
   <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268EEEB9-B244-43F0-BF91-1A1C6E467579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1696E-98C9-4A05-B76B-1036EB9E3354}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2025,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2124,13 @@
         <v>560954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>556</v>
@@ -2058,13 +2139,13 @@
         <v>563190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>1116</v>
@@ -2073,13 +2154,13 @@
         <v>1124144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,7 +2216,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2153,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2168,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2183,7 +2264,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2279,13 @@
         <v>49747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2216,10 +2297,10 @@
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -2228,13 +2309,13 @@
         <v>74998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2330,13 @@
         <v>912053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>886</v>
@@ -2264,13 +2345,13 @@
         <v>943142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
@@ -2279,13 +2360,13 @@
         <v>1855195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2422,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2359,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2374,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2389,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2485,13 @@
         <v>23962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2419,13 +2500,13 @@
         <v>21282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2434,13 +2515,13 @@
         <v>45244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2536,13 @@
         <v>654547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>674</v>
@@ -2470,13 +2551,13 @@
         <v>662559</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>1292</v>
@@ -2485,13 +2566,13 @@
         <v>1317106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2628,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2565,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2580,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2595,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2691,13 @@
         <v>38271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -2625,13 +2706,13 @@
         <v>30834</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -2640,13 +2721,13 @@
         <v>69105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2742,13 @@
         <v>903951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>967</v>
@@ -2676,13 +2757,13 @@
         <v>1007778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>1917</v>
@@ -2691,13 +2772,13 @@
         <v>1911729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2786,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2801,7 +2882,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2897,13 @@
         <v>136019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -2831,13 +2912,13 @@
         <v>91534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -2846,13 +2927,13 @@
         <v>227554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2948,13 @@
         <v>3140525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>3209</v>
@@ -2882,28 +2963,28 @@
         <v>3287664</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>6285</v>
       </c>
       <c r="N26" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +3026,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -2959,7 +3040,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005D9BF1-1B7E-4945-BE7E-7BE895ADC09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A6B7F9-487A-4362-88A1-D9C641B1EDC8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2997,7 +3078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3125,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3140,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3236,13 @@
         <v>1828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3170,13 +3251,13 @@
         <v>3315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3185,13 +3266,13 @@
         <v>5143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,10 +3287,10 @@
         <v>113937</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -3221,13 +3302,13 @@
         <v>108590</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>216</v>
@@ -3236,13 +3317,13 @@
         <v>222527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3331,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3361,13 +3442,13 @@
         <v>22398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3379,10 +3460,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -3391,13 +3472,13 @@
         <v>31543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3493,13 @@
         <v>565306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>543</v>
@@ -3430,10 +3511,10 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>1077</v>
@@ -3442,13 +3523,13 @@
         <v>1141306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,7 +3585,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3522,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3537,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3552,7 +3633,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3648,13 @@
         <v>19835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3582,13 +3663,13 @@
         <v>9481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3597,13 +3678,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3699,13 @@
         <v>998112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>928</v>
@@ -3633,13 +3714,13 @@
         <v>1018310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1846</v>
@@ -3648,13 +3729,13 @@
         <v>2016422</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3791,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3728,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3743,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3758,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3854,13 @@
         <v>14476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3788,13 +3869,13 @@
         <v>7421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3803,13 +3884,13 @@
         <v>21898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3905,13 @@
         <v>743147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>698</v>
@@ -3839,10 +3920,10 @@
         <v>769753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>192</v>
@@ -3854,13 +3935,13 @@
         <v>1512899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3997,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3934,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3949,7 +4030,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3964,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +4060,13 @@
         <v>15116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3994,13 +4075,13 @@
         <v>13105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -4009,13 +4090,13 @@
         <v>28222</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4111,13 @@
         <v>932623</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>990</v>
@@ -4045,13 +4126,13 @@
         <v>1038796</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>1885</v>
@@ -4060,13 +4141,13 @@
         <v>1971418</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4155,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4170,7 +4251,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4266,13 @@
         <v>73653</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -4200,13 +4281,13 @@
         <v>42468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -4215,13 +4296,13 @@
         <v>116121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4317,13 @@
         <v>3353126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
         <v>3255</v>
@@ -4251,13 +4332,13 @@
         <v>3511448</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>6398</v>
@@ -4266,13 +4347,13 @@
         <v>6864573</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4409,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B598F91E-2014-463A-87C7-20B9084A143A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3707CE1-5517-46ED-8467-97CBE31DDF1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4366,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4479,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4494,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4509,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4605,13 @@
         <v>1890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4545,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4560,7 +4641,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,10 +4656,10 @@
         <v>114656</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -4593,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -4605,10 +4686,10 @@
         <v>228016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -4685,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4700,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4715,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4811,13 @@
         <v>7863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4745,13 +4826,13 @@
         <v>9547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4763,10 +4844,10 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4862,13 @@
         <v>550391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -4796,13 +4877,13 @@
         <v>549932</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>1073</v>
@@ -4814,10 +4895,10 @@
         <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4954,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4891,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4906,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4921,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +5017,13 @@
         <v>21722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4951,13 +5032,13 @@
         <v>14295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4966,13 +5047,13 @@
         <v>36017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5068,13 @@
         <v>1000709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>964</v>
@@ -5002,13 +5083,13 @@
         <v>1028618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>1894</v>
@@ -5017,13 +5098,13 @@
         <v>2029327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,7 +5160,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5097,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5112,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5127,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5223,13 @@
         <v>12411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5157,13 +5238,13 @@
         <v>13916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5172,13 +5253,13 @@
         <v>26327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5274,13 @@
         <v>747141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>724</v>
@@ -5208,13 +5289,13 @@
         <v>771095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>1409</v>
@@ -5223,13 +5304,13 @@
         <v>1518236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5366,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5303,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5318,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5333,7 +5414,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5429,13 @@
         <v>22594</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5363,13 +5444,13 @@
         <v>7761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5378,13 +5459,13 @@
         <v>30355</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5480,13 @@
         <v>914973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>952</v>
@@ -5414,13 +5495,13 @@
         <v>1036018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>1860</v>
@@ -5429,13 +5510,13 @@
         <v>1950991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5524,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5539,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5635,13 @@
         <v>66480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -5569,13 +5650,13 @@
         <v>45519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -5584,13 +5665,13 @@
         <v>111999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5686,13 @@
         <v>3327870</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>3297</v>
@@ -5620,13 +5701,13 @@
         <v>3499023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
         <v>6462</v>
@@ -5635,13 +5716,13 @@
         <v>6826893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,7 +5778,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367087EF-DA72-4427-AAE3-EF15AF24DDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31A255E-F03D-4647-8AE2-5B07A45DA9AC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5735,7 +5816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5848,7 +5929,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5863,7 +5944,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5878,7 +5959,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5974,13 @@
         <v>2426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5908,13 +5989,13 @@
         <v>6904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -5923,13 +6004,13 @@
         <v>9330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +6025,13 @@
         <v>99556</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -5959,13 +6040,13 @@
         <v>123829</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>342</v>
@@ -5974,13 +6055,13 @@
         <v>223385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6135,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6063,13 +6144,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6078,13 +6159,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,10 +6183,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -6114,13 +6195,13 @@
         <v>13490</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -6129,13 +6210,13 @@
         <v>33006</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,10 +6234,10 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>968</v>
@@ -6165,13 +6246,13 @@
         <v>578503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>1552</v>
@@ -6180,13 +6261,13 @@
         <v>1108810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,7 +6323,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6260,7 +6341,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6269,13 +6350,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6284,13 +6365,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6386,13 @@
         <v>24347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -6320,13 +6401,13 @@
         <v>27032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -6335,13 +6416,13 @@
         <v>51379</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6437,13 @@
         <v>1014901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>1473</v>
@@ -6371,13 +6452,13 @@
         <v>1031155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>2406</v>
@@ -6386,13 +6467,13 @@
         <v>2046056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +6529,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6466,7 +6547,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6481,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6496,7 +6577,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6592,13 @@
         <v>17541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>156</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6526,13 +6607,13 @@
         <v>16051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -6541,13 +6622,13 @@
         <v>33592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6643,13 @@
         <v>709383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>1022</v>
@@ -6577,13 +6658,13 @@
         <v>855951</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>1677</v>
@@ -6592,13 +6673,13 @@
         <v>1565334</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,7 +6735,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6672,7 +6753,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6681,13 +6762,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6696,13 +6777,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6798,13 @@
         <v>25053</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -6732,13 +6813,13 @@
         <v>34198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -6747,13 +6828,13 @@
         <v>59251</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,16 +6846,16 @@
         <v>970</v>
       </c>
       <c r="D22" s="7">
-        <v>939229</v>
+        <v>939228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>1507</v>
@@ -6783,13 +6864,13 @@
         <v>1112296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>2477</v>
@@ -6798,13 +6879,13 @@
         <v>2051525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6897,7 @@
         <v>1005</v>
       </c>
       <c r="D23" s="7">
-        <v>964282</v>
+        <v>964281</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>35</v>
@@ -6878,7 +6959,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6890,10 +6971,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6902,13 +6983,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +7004,13 @@
         <v>88883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -6938,13 +7019,13 @@
         <v>97675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>271</v>
@@ -6953,13 +7034,13 @@
         <v>186558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>362</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +7055,13 @@
         <v>3293375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>5198</v>
@@ -6989,13 +7070,13 @@
         <v>3701734</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>8454</v>
@@ -7004,13 +7085,13 @@
         <v>6995110</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7147,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{986C57EF-1F1B-49F2-A16D-84ED3F0782E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{802BA4ED-8F56-45FB-8C31-4845C22000E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6B13F8E-D20A-4BBA-B73A-766A438B2B9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6B3087-B99C-4FBC-BCE2-82B44403B9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="409">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1189 +95,1174 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>6,18%</t>
+    <t>5,57%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -1692,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF1696E-98C9-4A05-B76B-1036EB9E3354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442CD6F5-DC44-44D0-91A0-E34BBC47A220}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2076,10 +2061,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2088,13 +2073,13 @@
         <v>12406</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -2103,13 +2088,13 @@
         <v>30106</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2109,13 @@
         <v>560954</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>556</v>
@@ -2139,13 +2124,13 @@
         <v>563190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1116</v>
@@ -2154,13 +2139,13 @@
         <v>1124144</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2201,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2234,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2249,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2264,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2264,13 @@
         <v>49747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2294,13 +2279,13 @@
         <v>25251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -2309,13 +2294,13 @@
         <v>74998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2315,13 @@
         <v>912053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>886</v>
@@ -2345,13 +2330,13 @@
         <v>943142</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1735</v>
@@ -2360,13 +2345,13 @@
         <v>1855195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,7 +2407,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2440,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2455,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2470,7 +2455,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2470,13 @@
         <v>23962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2500,13 +2485,13 @@
         <v>21282</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2515,13 +2500,13 @@
         <v>45244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2521,13 @@
         <v>654547</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>674</v>
@@ -2551,13 +2536,13 @@
         <v>662559</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>1292</v>
@@ -2566,13 +2551,13 @@
         <v>1317106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2613,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2646,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2661,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2676,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2676,13 @@
         <v>38271</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -2706,13 +2691,13 @@
         <v>30834</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>74</v>
@@ -2721,13 +2706,13 @@
         <v>69105</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2727,13 @@
         <v>903951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>967</v>
@@ -2757,13 +2742,13 @@
         <v>1007778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>1917</v>
@@ -2772,13 +2757,13 @@
         <v>1911729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2867,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2882,7 +2867,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2882,13 @@
         <v>136019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -2912,13 +2897,13 @@
         <v>91534</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>226</v>
@@ -2927,13 +2912,13 @@
         <v>227554</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,16 +2930,16 @@
         <v>3076</v>
       </c>
       <c r="D26" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>3209</v>
@@ -2963,13 +2948,13 @@
         <v>3287664</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M26" s="7">
         <v>6285</v>
@@ -2978,13 +2963,13 @@
         <v>6428187</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2981,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>35</v>
@@ -3040,7 +3025,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A6B7F9-487A-4362-88A1-D9C641B1EDC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA203C4-6697-42F1-9B3A-134B257185E5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3078,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3206,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3221,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3221,13 @@
         <v>1828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3251,13 +3236,13 @@
         <v>3315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3266,13 +3251,13 @@
         <v>5143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +3272,10 @@
         <v>113937</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -3302,13 +3287,13 @@
         <v>108590</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>216</v>
@@ -3317,13 +3302,13 @@
         <v>222527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3412,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3442,13 +3427,13 @@
         <v>22398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3460,10 +3445,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>26</v>
@@ -3472,13 +3457,13 @@
         <v>31543</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3478,13 @@
         <v>565306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>543</v>
@@ -3511,10 +3496,10 @@
         <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>1077</v>
@@ -3523,13 +3508,13 @@
         <v>1141306</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3570,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3603,7 +3588,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3618,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3633,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3633,13 @@
         <v>19835</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3663,13 +3648,13 @@
         <v>9481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3678,13 +3663,13 @@
         <v>29316</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3684,13 @@
         <v>998112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>928</v>
@@ -3714,13 +3699,13 @@
         <v>1018310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1846</v>
@@ -3729,13 +3714,13 @@
         <v>2016422</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3809,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3824,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3839,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3839,13 @@
         <v>14476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3869,13 +3854,13 @@
         <v>7421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3884,13 +3869,13 @@
         <v>21898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3890,13 @@
         <v>743147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
         <v>698</v>
@@ -3920,13 +3905,13 @@
         <v>769753</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M18" s="7">
         <v>1374</v>
@@ -3935,13 +3920,13 @@
         <v>1512899</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +3982,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4015,7 +4000,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4030,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4045,7 +4030,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4045,13 @@
         <v>15116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -4075,13 +4060,13 @@
         <v>13105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -4090,13 +4075,13 @@
         <v>28222</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4096,13 @@
         <v>932623</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="H22" s="7">
         <v>990</v>
@@ -4126,13 +4111,13 @@
         <v>1038796</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>1885</v>
@@ -4141,13 +4126,13 @@
         <v>1971418</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4236,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4251,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4251,13 @@
         <v>73653</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -4281,13 +4266,13 @@
         <v>42468</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>106</v>
@@ -4296,13 +4281,13 @@
         <v>116121</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4302,13 @@
         <v>3353126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H26" s="7">
         <v>3255</v>
@@ -4332,13 +4317,13 @@
         <v>3511448</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>6398</v>
@@ -4347,13 +4332,13 @@
         <v>6864573</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4394,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3707CE1-5517-46ED-8467-97CBE31DDF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB7C8F3-1655-45E4-8A5C-5C3DABCCB2CB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4575,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4590,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4590,13 @@
         <v>1890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4626,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4641,7 +4626,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,10 +4641,10 @@
         <v>114656</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -4674,7 +4659,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -4686,10 +4671,10 @@
         <v>228016</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -4766,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4781,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4796,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4796,13 @@
         <v>7863</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4826,13 +4811,13 @@
         <v>9547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4844,10 +4829,10 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4847,13 @@
         <v>550391</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -4877,13 +4862,13 @@
         <v>549932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>1073</v>
@@ -4895,10 +4880,10 @@
         <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,7 +4939,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4972,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4987,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5002,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5002,13 @@
         <v>21722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5032,13 +5017,13 @@
         <v>14295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5047,13 +5032,13 @@
         <v>36017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>23</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5053,13 @@
         <v>1000709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
         <v>964</v>
@@ -5083,13 +5068,13 @@
         <v>1028618</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>1894</v>
@@ -5098,13 +5083,13 @@
         <v>2029327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>34</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5145,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5178,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5193,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5208,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5208,13 @@
         <v>12411</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5238,13 +5223,13 @@
         <v>13916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5253,13 +5238,13 @@
         <v>26327</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5259,13 @@
         <v>747141</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>724</v>
@@ -5289,13 +5274,13 @@
         <v>771095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>1409</v>
@@ -5304,13 +5289,13 @@
         <v>1518236</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5351,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5384,7 +5369,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5399,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5414,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5414,13 @@
         <v>22594</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -5444,13 +5429,13 @@
         <v>7761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5459,13 +5444,13 @@
         <v>30355</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5465,13 @@
         <v>914973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>952</v>
@@ -5495,13 +5480,13 @@
         <v>1036018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>1860</v>
@@ -5510,13 +5495,13 @@
         <v>1950991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,7 +5575,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5605,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5620,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5620,13 @@
         <v>66480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -5650,13 +5635,13 @@
         <v>45519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -5665,13 +5650,13 @@
         <v>111999</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5671,13 @@
         <v>3327870</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>3297</v>
@@ -5701,13 +5686,13 @@
         <v>3499023</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>6462</v>
@@ -5716,13 +5701,13 @@
         <v>6826893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5763,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5799,7 +5784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31A255E-F03D-4647-8AE2-5B07A45DA9AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781100B4-0449-4E19-9BF3-CAFB0E9944ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5816,7 +5801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5929,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5944,7 +5929,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5959,7 +5944,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5959,13 @@
         <v>2426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5989,13 +5974,13 @@
         <v>6904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -6004,13 +5989,13 @@
         <v>9330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6010,13 @@
         <v>99556</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>228</v>
@@ -6040,13 +6025,13 @@
         <v>123829</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>342</v>
@@ -6055,13 +6040,13 @@
         <v>223385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,7 +6120,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6144,13 +6129,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6159,13 +6144,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,10 +6168,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -6195,13 +6180,13 @@
         <v>13490</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -6210,13 +6195,13 @@
         <v>33006</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,10 +6219,10 @@
         <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>968</v>
@@ -6246,13 +6231,13 @@
         <v>578503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>1552</v>
@@ -6261,13 +6246,13 @@
         <v>1108810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,7 +6308,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6341,7 +6326,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6350,13 +6335,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6365,13 +6350,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6371,13 @@
         <v>24347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -6401,13 +6386,13 @@
         <v>27032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>72</v>
@@ -6416,13 +6401,13 @@
         <v>51379</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6422,13 @@
         <v>1014901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>1473</v>
@@ -6452,13 +6437,13 @@
         <v>1031155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>2406</v>
@@ -6467,13 +6452,13 @@
         <v>2046056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,7 +6514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6547,7 +6532,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6562,7 +6547,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6577,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6577,13 @@
         <v>17541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -6607,13 +6592,13 @@
         <v>16051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -6622,13 +6607,13 @@
         <v>33592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6628,13 @@
         <v>709383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>1022</v>
@@ -6658,13 +6643,13 @@
         <v>855951</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>1677</v>
@@ -6673,13 +6658,13 @@
         <v>1565334</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,7 +6720,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6753,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6762,13 +6747,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6777,13 +6762,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6783,13 @@
         <v>25053</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -6813,13 +6798,13 @@
         <v>34198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -6828,13 +6813,13 @@
         <v>59251</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6834,13 @@
         <v>939228</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
         <v>1507</v>
@@ -6864,13 +6849,13 @@
         <v>1112296</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>2477</v>
@@ -6879,13 +6864,13 @@
         <v>2051525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -6971,10 +6956,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6983,13 +6968,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +6989,13 @@
         <v>88883</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>154</v>
@@ -7019,13 +7004,13 @@
         <v>97675</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M25" s="7">
         <v>271</v>
@@ -7034,13 +7019,13 @@
         <v>186558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7040,13 @@
         <v>3293375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>409</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>5198</v>
@@ -7070,13 +7055,13 @@
         <v>3701734</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>8454</v>
@@ -7085,13 +7070,13 @@
         <v>6995110</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>407</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,7 +7132,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53388A0B-57F3-4758-9DA5-242F276DA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C010CDD-EFC8-421A-9C8E-824F879FCDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC2E1C61-F791-4B0F-8D99-B74727FE66D1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{08164BE3-92FB-4F79-B1E9-95F3CFBE33BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1045 +68,883 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,5%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>98,07%</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562A9CF5-372F-481D-BF13-7D7DB7772868}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65931C69-E63D-4C9E-A61C-EDE227694F81}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1636,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>6340</v>
+        <v>24040</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1651,10 +1489,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>1762</v>
+        <v>14168</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1666,10 +1504,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>8102</v>
+        <v>38208</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1687,10 +1525,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>99</v>
+        <v>659</v>
       </c>
       <c r="D5" s="7">
-        <v>109018</v>
+        <v>669972</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1702,10 +1540,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>682</v>
       </c>
       <c r="I5" s="7">
-        <v>110993</v>
+        <v>674183</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1717,10 +1555,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1341</v>
       </c>
       <c r="N5" s="7">
-        <v>220011</v>
+        <v>1344155</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1738,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1753,10 +1591,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1768,10 +1606,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1791,10 +1629,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>17700</v>
+        <v>49747</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1806,10 +1644,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>12406</v>
+        <v>25251</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1821,19 +1659,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>30106</v>
+        <v>74998</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,49 +1680,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>560</v>
+        <v>849</v>
       </c>
       <c r="D8" s="7">
-        <v>560954</v>
+        <v>912053</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>556</v>
+        <v>886</v>
       </c>
       <c r="I8" s="7">
-        <v>563190</v>
+        <v>943142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1116</v>
+        <v>1735</v>
       </c>
       <c r="N8" s="7">
-        <v>1124144</v>
+        <v>1855195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1908,10 +1746,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1923,10 +1761,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1940,55 +1778,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>49747</v>
+        <v>23962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>25251</v>
+        <v>21282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>74998</v>
+        <v>45244</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,49 +1835,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>849</v>
+        <v>618</v>
       </c>
       <c r="D11" s="7">
-        <v>912053</v>
+        <v>654547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>886</v>
+        <v>674</v>
       </c>
       <c r="I11" s="7">
-        <v>943142</v>
+        <v>662559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1735</v>
+        <v>1292</v>
       </c>
       <c r="N11" s="7">
-        <v>1855195</v>
+        <v>1317106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2063,10 +1901,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2078,10 +1916,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2095,55 +1933,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>23962</v>
+        <v>38271</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>21282</v>
+        <v>30834</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>45244</v>
+        <v>69105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,49 +1990,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>950</v>
       </c>
       <c r="D14" s="7">
-        <v>654547</v>
+        <v>903951</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7">
+        <v>967</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1007778</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="7">
-        <v>674</v>
-      </c>
-      <c r="I14" s="7">
-        <v>662559</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1917</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1911729</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1292</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1317106</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2218,10 +2056,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2233,10 +2071,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2250,55 +2088,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="D16" s="7">
-        <v>38271</v>
+        <v>136019</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>91534</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>226</v>
+      </c>
+      <c r="N16" s="7">
+        <v>227554</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30834</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="7">
-        <v>74</v>
-      </c>
-      <c r="N16" s="7">
-        <v>69105</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,49 +2145,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>950</v>
+        <v>3076</v>
       </c>
       <c r="D17" s="7">
-        <v>903951</v>
+        <v>3140524</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3209</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3287663</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="7">
-        <v>967</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1007778</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6285</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6428187</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1911729</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2196,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2373,10 +2211,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2388,10 +2226,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2404,171 +2242,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>138</v>
-      </c>
-      <c r="D19" s="7">
-        <v>136019</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>91534</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="7">
-        <v>226</v>
-      </c>
-      <c r="N19" s="7">
-        <v>227554</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3076</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3140525</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3287664</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6285</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6428186</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2581,8 +2263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADD1A71-33B2-4D5F-BA8A-9522F3996382}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF39EBB-1AC3-4C0A-89C0-65F251EF2E98}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2598,7 +2280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2699,49 +2381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>1828</v>
+        <v>24226</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>3315</v>
+        <v>12460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>5143</v>
+        <v>36686</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,49 +2432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="D5" s="7">
-        <v>113937</v>
+        <v>679243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>639</v>
       </c>
       <c r="I5" s="7">
-        <v>108590</v>
+        <v>684590</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1293</v>
       </c>
       <c r="N5" s="7">
-        <v>222527</v>
+        <v>1363833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2816,10 +2498,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2831,10 +2513,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2857,46 +2539,46 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>22398</v>
+        <v>19835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>9145</v>
+        <v>9481</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="7">
+        <v>27</v>
+      </c>
+      <c r="N7" s="7">
+        <v>29316</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="7">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7">
-        <v>31543</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,49 +2587,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>918</v>
       </c>
       <c r="D8" s="7">
-        <v>565306</v>
+        <v>998112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>543</v>
+        <v>928</v>
       </c>
       <c r="I8" s="7">
-        <v>576000</v>
+        <v>1018310</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1846</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2016422</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1077</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1141306</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,10 +2638,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2971,10 +2653,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2986,10 +2668,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3003,55 +2685,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>19835</v>
+        <v>14476</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>9481</v>
+        <v>7421</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>29316</v>
+        <v>21898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,49 +2742,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>918</v>
+        <v>676</v>
       </c>
       <c r="D11" s="7">
-        <v>998112</v>
+        <v>743147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>928</v>
+        <v>698</v>
       </c>
       <c r="I11" s="7">
-        <v>1018310</v>
+        <v>769753</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>1846</v>
+        <v>1374</v>
       </c>
       <c r="N11" s="7">
-        <v>2016422</v>
+        <v>1512899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,10 +2793,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3126,10 +2808,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3141,10 +2823,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3158,55 +2840,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>15116</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7">
         <v>13</v>
       </c>
-      <c r="D13" s="7">
-        <v>14476</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
       <c r="I13" s="7">
-        <v>7421</v>
+        <v>13105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>21898</v>
+        <v>28222</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,49 +2897,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>676</v>
+        <v>895</v>
       </c>
       <c r="D14" s="7">
-        <v>743147</v>
+        <v>932623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
-        <v>698</v>
+        <v>990</v>
       </c>
       <c r="I14" s="7">
-        <v>769753</v>
+        <v>1038796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
-        <v>1374</v>
+        <v>1885</v>
       </c>
       <c r="N14" s="7">
-        <v>1512899</v>
+        <v>1971418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3281,10 +2963,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3296,10 +2978,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3313,55 +2995,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>15116</v>
+        <v>73653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>13105</v>
+        <v>42468</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="N16" s="7">
-        <v>28222</v>
+        <v>116121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,49 +3052,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>895</v>
+        <v>3143</v>
       </c>
       <c r="D17" s="7">
-        <v>932623</v>
+        <v>3353126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
-        <v>990</v>
+        <v>3255</v>
       </c>
       <c r="I17" s="7">
-        <v>1038796</v>
+        <v>3511448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
-        <v>1885</v>
+        <v>6398</v>
       </c>
       <c r="N17" s="7">
-        <v>1971418</v>
+        <v>6864573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,10 +3103,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3436,10 +3118,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3451,10 +3133,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3467,171 +3149,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7">
-        <v>73653</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="7">
-        <v>40</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42468</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" s="7">
-        <v>106</v>
-      </c>
-      <c r="N19" s="7">
-        <v>116121</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3143</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3353126</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3255</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3511448</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6398</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6864573</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3644,8 +3170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5994A74-C64B-46CD-B009-B487877311F7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40674A5A-1983-48B0-83FA-A4CE78BD91DC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3661,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,49 +3288,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1890</v>
+        <v>9753</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>9547</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>1890</v>
+        <v>19300</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,49 +3339,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>642</v>
       </c>
       <c r="D5" s="7">
-        <v>114656</v>
+        <v>665047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="H5" s="7">
-        <v>115</v>
+        <v>657</v>
       </c>
       <c r="I5" s="7">
-        <v>113360</v>
+        <v>663292</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="M5" s="7">
-        <v>226</v>
+        <v>1299</v>
       </c>
       <c r="N5" s="7">
-        <v>228016</v>
+        <v>1328339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,10 +3390,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3879,10 +3405,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3894,10 +3420,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3917,49 +3443,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>7863</v>
+        <v>21722</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>9547</v>
+        <v>14295</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>17410</v>
+        <v>36017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,49 +3494,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>531</v>
+        <v>930</v>
       </c>
       <c r="D8" s="7">
-        <v>550391</v>
+        <v>1000709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>964</v>
       </c>
       <c r="I8" s="7">
-        <v>549932</v>
+        <v>1028618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
-        <v>1073</v>
+        <v>1894</v>
       </c>
       <c r="N8" s="7">
-        <v>1100323</v>
+        <v>2029327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,10 +3545,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4034,10 +3560,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4049,10 +3575,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4066,55 +3592,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>21722</v>
+        <v>12411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>14295</v>
+        <v>13916</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>36017</v>
+        <v>26327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,49 +3649,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>930</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>1000709</v>
+        <v>747141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
-        <v>964</v>
+        <v>724</v>
       </c>
       <c r="I11" s="7">
-        <v>1028618</v>
+        <v>771095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="M11" s="7">
-        <v>1894</v>
+        <v>1409</v>
       </c>
       <c r="N11" s="7">
-        <v>2029327</v>
+        <v>1518236</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,10 +3700,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4189,10 +3715,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4204,10 +3730,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4221,55 +3747,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>12411</v>
+        <v>22594</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>13916</v>
+        <v>7761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>26327</v>
+        <v>30355</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,49 +3804,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>908</v>
       </c>
       <c r="D14" s="7">
-        <v>747141</v>
+        <v>914973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
-        <v>724</v>
+        <v>952</v>
       </c>
       <c r="I14" s="7">
-        <v>771095</v>
+        <v>1036018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
-        <v>1409</v>
+        <v>1860</v>
       </c>
       <c r="N14" s="7">
-        <v>1518236</v>
+        <v>1950991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,10 +3855,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4344,10 +3870,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4359,10 +3885,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4376,55 +3902,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>22594</v>
+        <v>66480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>7761</v>
+        <v>45519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="N16" s="7">
-        <v>30355</v>
+        <v>111999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,49 +3959,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>908</v>
+        <v>3165</v>
       </c>
       <c r="D17" s="7">
-        <v>914973</v>
+        <v>3327870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
-        <v>952</v>
+        <v>3297</v>
       </c>
       <c r="I17" s="7">
-        <v>1036018</v>
+        <v>3499023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
-        <v>1860</v>
+        <v>6462</v>
       </c>
       <c r="N17" s="7">
-        <v>1950991</v>
+        <v>6826893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4010,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4499,10 +4025,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4514,10 +4040,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4530,171 +4056,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>66</v>
-      </c>
-      <c r="D19" s="7">
-        <v>66480</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H19" s="7">
-        <v>41</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45519</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>107</v>
-      </c>
-      <c r="N19" s="7">
-        <v>111999</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3165</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3327870</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3499023</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6462</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6826893</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4707,8 +4077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B3EE62-E764-48A3-9C39-65361AE94013}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6A7FD8-39C6-408C-8BDA-2BD9BFA684FF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4724,7 +4094,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4825,49 +4195,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>2426</v>
+        <v>21127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>6904</v>
+        <v>18911</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>9330</v>
+        <v>40038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,49 +4246,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>698</v>
       </c>
       <c r="D5" s="7">
-        <v>99556</v>
+        <v>614314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
-        <v>228</v>
+        <v>1196</v>
       </c>
       <c r="I5" s="7">
-        <v>123829</v>
+        <v>655940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="M5" s="7">
-        <v>342</v>
+        <v>1894</v>
       </c>
       <c r="N5" s="7">
-        <v>223385</v>
+        <v>1270254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4942,10 +4312,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4957,10 +4327,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310292</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4980,49 +4350,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>19516</v>
+        <v>22826</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>13490</v>
+        <v>24605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>33006</v>
+        <v>47431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +4401,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>584</v>
+        <v>933</v>
       </c>
       <c r="D8" s="7">
-        <v>530307</v>
+        <v>1170038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>968</v>
+        <v>1473</v>
       </c>
       <c r="I8" s="7">
-        <v>578503</v>
+        <v>932305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
-        <v>1552</v>
+        <v>2406</v>
       </c>
       <c r="N8" s="7">
-        <v>1108810</v>
+        <v>2102343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5097,10 +4467,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591993</v>
+        <v>956910</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5112,10 +4482,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141816</v>
+        <v>2149774</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5129,55 +4499,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>24347</v>
+        <v>16661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>27032</v>
+        <v>14052</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>51379</v>
+        <v>30713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,49 +4556,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>933</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>1014901</v>
+        <v>686304</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
-        <v>1473</v>
+        <v>1022</v>
       </c>
       <c r="I11" s="7">
-        <v>1031155</v>
+        <v>917145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
-        <v>2406</v>
+        <v>1677</v>
       </c>
       <c r="N11" s="7">
-        <v>2046056</v>
+        <v>1603448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,10 +4607,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5252,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1042</v>
       </c>
       <c r="I12" s="7">
-        <v>1058187</v>
+        <v>931197</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5267,10 +4637,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1716</v>
       </c>
       <c r="N12" s="7">
-        <v>2097435</v>
+        <v>1634161</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5284,55 +4654,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>17541</v>
+        <v>23078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>16051</v>
+        <v>31002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="N13" s="7">
-        <v>33592</v>
+        <v>54080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,49 +4711,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>655</v>
+        <v>970</v>
       </c>
       <c r="D14" s="7">
-        <v>709383</v>
+        <v>902677</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>1022</v>
+        <v>1507</v>
       </c>
       <c r="I14" s="7">
-        <v>855951</v>
+        <v>1060514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>1677</v>
+        <v>2477</v>
       </c>
       <c r="N14" s="7">
-        <v>1565334</v>
+        <v>1963191</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>327</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,10 +4762,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>925755</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5407,10 +4777,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1042</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872002</v>
+        <v>1091516</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5422,10 +4792,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1716</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1598926</v>
+        <v>2017271</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5439,55 +4809,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>25053</v>
+        <v>83692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="I16" s="7">
-        <v>34198</v>
+        <v>88570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="N16" s="7">
-        <v>59251</v>
+        <v>172262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,49 +4866,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>970</v>
+        <v>3256</v>
       </c>
       <c r="D17" s="7">
-        <v>939229</v>
+        <v>3373334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
-        <v>1507</v>
+        <v>5198</v>
       </c>
       <c r="I17" s="7">
-        <v>1112296</v>
+        <v>3565904</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
-        <v>2477</v>
+        <v>8454</v>
       </c>
       <c r="N17" s="7">
-        <v>2051525</v>
+        <v>6939237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,10 +4917,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>964282</v>
+        <v>3457026</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5562,10 +4932,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5352</v>
       </c>
       <c r="I18" s="7">
-        <v>1146494</v>
+        <v>3654474</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5577,10 +4947,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8725</v>
       </c>
       <c r="N18" s="7">
-        <v>2110776</v>
+        <v>7111499</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5593,171 +4963,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>117</v>
-      </c>
-      <c r="D19" s="7">
-        <v>88883</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" s="7">
-        <v>154</v>
-      </c>
-      <c r="I19" s="7">
-        <v>97675</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M19" s="7">
-        <v>271</v>
-      </c>
-      <c r="N19" s="7">
-        <v>186558</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3256</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3293375</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5198</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3701734</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8454</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6995110</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382258</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5352</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3799409</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8725</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181668</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>117</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
